--- a/OKTA.xlsx
+++ b/OKTA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A19BE5-FA50-45E2-9AEB-BCBB44D70D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BC4C9-9EF6-443E-B41D-9E13F33A20D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56235" yWindow="2055" windowWidth="25395" windowHeight="16665" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
+    <workbookView xWindow="57315" yWindow="0" windowWidth="20955" windowHeight="16665" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -299,12 +299,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -334,9 +328,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,10 +350,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,10 +885,10 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,43 +1094,42 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
-        <f>+E8+E9</f>
+        <f t="shared" ref="E10:L10" si="0">+E8+E9</f>
         <v>217.37899999999999</v>
       </c>
       <c r="F10" s="6">
-        <f>+F8+F9</f>
+        <f t="shared" si="0"/>
         <v>234.74</v>
       </c>
       <c r="G10" s="6">
-        <f>+G8+G9</f>
+        <f t="shared" si="0"/>
         <v>251.006</v>
       </c>
       <c r="H10" s="6">
-        <f>+H8+H9</f>
+        <f t="shared" si="0"/>
         <v>315.5</v>
       </c>
       <c r="I10" s="6">
-        <f>+I8+I9</f>
+        <f t="shared" si="0"/>
         <v>350.68</v>
       </c>
       <c r="J10" s="6">
-        <f>+J8+J9</f>
+        <f t="shared" si="0"/>
         <v>383.01499999999999</v>
       </c>
       <c r="K10" s="6">
-        <f>+K8+K9</f>
+        <f t="shared" si="0"/>
         <v>414.94299999999998</v>
       </c>
       <c r="L10" s="6">
-        <f>+L8+L9</f>
+        <f t="shared" si="0"/>
         <v>451.80700000000002</v>
       </c>
       <c r="M10" s="6">
         <v>470</v>
       </c>
       <c r="N10" s="6">
-        <f>+J10*1.2</f>
-        <v>459.61799999999999</v>
+        <v>480</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(G10:J10)</f>
@@ -1147,7 +1137,7 @@
       </c>
       <c r="S10" s="5">
         <f>SUM(K10:N10)</f>
-        <v>1796.3679999999999</v>
+        <v>1816.75</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1185,8 +1175,8 @@
         <v>141</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" ref="N11" si="0">+N10-N12</f>
-        <v>137.8854</v>
+        <f t="shared" ref="N11" si="1">+N10-N12</f>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1196,35 +1186,35 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <f>+E10-E11</f>
+        <f t="shared" ref="E12:L12" si="2">+E10-E11</f>
         <v>160.471</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10-F11</f>
+        <f t="shared" si="2"/>
         <v>173.60000000000002</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10-G11</f>
+        <f t="shared" si="2"/>
         <v>184.88299999999998</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10-H11</f>
+        <f t="shared" si="2"/>
         <v>214.39400000000001</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10-I11</f>
+        <f t="shared" si="2"/>
         <v>241.006</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10-J11</f>
+        <f t="shared" si="2"/>
         <v>263.51299999999998</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10-K11</f>
+        <f t="shared" si="2"/>
         <v>283.77800000000002</v>
       </c>
       <c r="L12" s="4">
-        <f>+L10-L11</f>
+        <f t="shared" si="2"/>
         <v>314.11300000000006</v>
       </c>
       <c r="M12" s="4">
@@ -1232,8 +1222,8 @@
         <v>329</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12" si="1">+N10*0.7</f>
-        <v>321.73259999999999</v>
+        <f t="shared" ref="N12" si="3">+N10*0.7</f>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1271,7 +1261,7 @@
         <v>150.11524999999997</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13:N15" si="2">+J13*1.15</f>
+        <f t="shared" ref="N13:N15" si="4">+J13*1.15</f>
         <v>169.57210000000001</v>
       </c>
     </row>
@@ -1310,7 +1300,7 @@
         <v>234.45969999999997</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>254.81354999999999</v>
       </c>
     </row>
@@ -1349,7 +1339,7 @@
         <v>120.92134999999999</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125.24419999999999</v>
       </c>
     </row>
@@ -1360,43 +1350,43 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <f>SUM(E13:E15)</f>
+        <f t="shared" ref="E16:L16" si="5">SUM(E13:E15)</f>
         <v>212.447</v>
       </c>
       <c r="F16" s="4">
-        <f>SUM(F13:F15)</f>
+        <f t="shared" si="5"/>
         <v>228.196</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(G13:G15)</f>
+        <f t="shared" si="5"/>
         <v>275.56399999999996</v>
       </c>
       <c r="H16" s="4">
-        <f>SUM(H13:H15)</f>
+        <f t="shared" si="5"/>
         <v>477.834</v>
       </c>
       <c r="I16" s="4">
-        <f>SUM(I13:I15)</f>
+        <f t="shared" si="5"/>
         <v>439.56200000000001</v>
       </c>
       <c r="J16" s="4">
-        <f>SUM(J13:J15)</f>
+        <f t="shared" si="5"/>
         <v>477.93900000000002</v>
       </c>
       <c r="K16" s="4">
-        <f>SUM(K13:K15)</f>
+        <f t="shared" si="5"/>
         <v>523.46699999999998</v>
       </c>
       <c r="L16" s="4">
-        <f>SUM(L13:L15)</f>
+        <f t="shared" si="5"/>
         <v>522.17500000000007</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="3">SUM(M13:M15)</f>
+        <f t="shared" ref="M16:N16" si="6">SUM(M13:M15)</f>
         <v>505.49629999999991</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>549.62985000000003</v>
       </c>
     </row>
@@ -1407,44 +1397,44 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f>E12-E16</f>
+        <f t="shared" ref="E17:L17" si="7">E12-E16</f>
         <v>-51.975999999999999</v>
       </c>
       <c r="F17" s="4">
-        <f>F12-F16</f>
+        <f t="shared" si="7"/>
         <v>-54.595999999999975</v>
       </c>
       <c r="G17" s="4">
-        <f>G12-G16</f>
+        <f t="shared" si="7"/>
         <v>-90.680999999999983</v>
       </c>
       <c r="H17" s="4">
-        <f>H12-H16</f>
+        <f t="shared" si="7"/>
         <v>-263.44</v>
       </c>
       <c r="I17" s="4">
-        <f>I12-I16</f>
+        <f t="shared" si="7"/>
         <v>-198.55600000000001</v>
       </c>
       <c r="J17" s="4">
-        <f>J12-J16</f>
+        <f t="shared" si="7"/>
         <v>-214.42600000000004</v>
       </c>
       <c r="K17" s="4">
-        <f>K12-K16</f>
+        <f t="shared" si="7"/>
         <v>-239.68899999999996</v>
       </c>
       <c r="L17" s="4">
-        <f>L12-L16</f>
+        <f t="shared" si="7"/>
         <v>-208.06200000000001</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" ref="M17" si="4">M12-M16</f>
+        <f t="shared" ref="M17" si="8">M12-M16</f>
         <v>-176.49629999999991</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17" si="5">N12-N16</f>
-        <v>-227.89725000000004</v>
+        <f t="shared" ref="N17" si="9">N12-N16</f>
+        <v>-213.62985000000003</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1455,7 @@
         <f>-22.76+4.355</f>
         <v>-18.405000000000001</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="4">
         <f>-22.872+2.211</f>
         <v>-20.661000000000001</v>
       </c>
@@ -1477,11 +1467,11 @@
         <f>-23.406+2.146</f>
         <v>-21.259999999999998</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="4">
         <f>-2.868+1.704</f>
         <v>-1.1639999999999999</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="4">
         <f>-2.915+4.721</f>
         <v>1.806</v>
       </c>
@@ -1495,44 +1485,44 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <f>+E17+E18</f>
+        <f t="shared" ref="E19:N19" si="10">+E17+E18</f>
         <v>-72.465999999999994</v>
       </c>
       <c r="F19" s="4">
-        <f>+F17+F18</f>
+        <f t="shared" si="10"/>
         <v>-75.038999999999973</v>
       </c>
       <c r="G19" s="4">
-        <f>+G17+G18</f>
+        <f t="shared" si="10"/>
         <v>-109.08599999999998</v>
       </c>
       <c r="H19" s="4">
-        <f>+H17+H18</f>
+        <f t="shared" si="10"/>
         <v>-284.101</v>
       </c>
       <c r="I19" s="4">
-        <f>+I17+I18</f>
+        <f t="shared" si="10"/>
         <v>-220.64400000000001</v>
       </c>
       <c r="J19" s="4">
-        <f>+J17+J18</f>
+        <f t="shared" si="10"/>
         <v>-235.68600000000004</v>
       </c>
       <c r="K19" s="4">
-        <f>+K17+K18</f>
+        <f t="shared" si="10"/>
         <v>-240.85299999999995</v>
       </c>
       <c r="L19" s="4">
-        <f>+L17+L18</f>
+        <f t="shared" si="10"/>
         <v>-206.256</v>
       </c>
       <c r="M19" s="4">
-        <f>+M17+M18</f>
+        <f t="shared" si="10"/>
         <v>-176.49629999999991</v>
       </c>
       <c r="N19" s="4">
-        <f>+N17+N18</f>
-        <v>-227.89725000000004</v>
+        <f t="shared" si="10"/>
+        <v>-213.62985000000003</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1575,44 +1565,44 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <f>+E19-E20</f>
+        <f t="shared" ref="E21:N21" si="11">+E19-E20</f>
         <v>-72.674999999999997</v>
       </c>
       <c r="F21" s="4">
-        <f>+F19-F20</f>
+        <f t="shared" si="11"/>
         <v>-75.805999999999969</v>
       </c>
       <c r="G21" s="4">
-        <f>+G19-G20</f>
+        <f t="shared" si="11"/>
         <v>-109.09599999999999</v>
       </c>
       <c r="H21" s="4">
-        <f>+H19-H20</f>
+        <f t="shared" si="11"/>
         <v>-276.63900000000001</v>
       </c>
       <c r="I21" s="4">
-        <f>+I19-I20</f>
+        <f t="shared" si="11"/>
         <v>-221.31100000000001</v>
       </c>
       <c r="J21" s="4">
-        <f>+J19-J20</f>
+        <f t="shared" si="11"/>
         <v>-241.18600000000004</v>
       </c>
       <c r="K21" s="4">
-        <f>+K19-K20</f>
+        <f t="shared" si="11"/>
         <v>-242.71299999999997</v>
       </c>
       <c r="L21" s="4">
-        <f>+L19-L20</f>
+        <f t="shared" si="11"/>
         <v>-210.47200000000001</v>
       </c>
       <c r="M21" s="4">
-        <f>+M19-M20</f>
+        <f t="shared" si="11"/>
         <v>-176.49629999999991</v>
       </c>
       <c r="N21" s="4">
-        <f>+N19-N20</f>
-        <v>-227.89725000000004</v>
+        <f t="shared" si="11"/>
+        <v>-213.62985000000003</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -1620,44 +1610,44 @@
         <v>33</v>
       </c>
       <c r="E22" s="7">
-        <f>E21/E23</f>
+        <f t="shared" ref="E22:N22" si="12">E21/E23</f>
         <v>-0.56418994977215031</v>
       </c>
       <c r="F22" s="7">
-        <f>F21/F23</f>
+        <f t="shared" si="12"/>
         <v>-0.58250472575266232</v>
       </c>
       <c r="G22" s="7">
-        <f>G21/G23</f>
+        <f t="shared" si="12"/>
         <v>-0.82788346980125516</v>
       </c>
       <c r="H22" s="7">
-        <f>H21/H23</f>
+        <f t="shared" si="12"/>
         <v>-1.8277251795424065</v>
       </c>
       <c r="I22" s="7">
-        <f>I21/I23</f>
+        <f t="shared" si="12"/>
         <v>-1.4393649678711726</v>
       </c>
       <c r="J22" s="7">
-        <f>J21/J23</f>
+        <f t="shared" si="12"/>
         <v>-1.5588547052740436</v>
       </c>
       <c r="K22" s="7">
-        <f>K21/K23</f>
+        <f t="shared" si="12"/>
         <v>-1.5571002405773855</v>
       </c>
       <c r="L22" s="7">
-        <f>L21/L23</f>
+        <f t="shared" si="12"/>
         <v>-1.3371791613722999</v>
       </c>
       <c r="M22" s="7">
-        <f>M21/M23</f>
+        <f t="shared" si="12"/>
         <v>-1.1213233799237605</v>
       </c>
       <c r="N22" s="7">
-        <f>N21/N23</f>
-        <v>-1.4478859593392632</v>
+        <f t="shared" si="12"/>
+        <v>-1.3572417407878019</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1722,8 +1712,8 @@
         <v>0.34025322231093869</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25" si="6">+N10/J10-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="N25" si="13">+N10/J10-1</f>
+        <v>0.25321462605903178</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -1731,31 +1721,31 @@
         <v>59</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:L26" si="7">+E12/E10</f>
+        <f t="shared" ref="E26:K26" si="14">+E12/E10</f>
         <v>0.73820838259445487</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.739541620516316</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.73656805016613136</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.67953724247226621</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.68725333637504271</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.6879965536597783</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.68389634238919572</v>
       </c>
       <c r="L26" s="8">
@@ -1767,7 +1757,7 @@
         <v>0.7</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" ref="N26" si="8">+N12/N10</f>
+        <f t="shared" ref="N26" si="15">+N12/N10</f>
         <v>0.7</v>
       </c>
     </row>
@@ -1959,7 +1949,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <f t="shared" ref="K36" si="9">SUM(K28:K35)</f>
+        <f t="shared" ref="K36" si="16">SUM(K28:K35)</f>
         <v>9045.6810000000005</v>
       </c>
       <c r="L36" s="4">

--- a/OKTA.xlsx
+++ b/OKTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BC4C9-9EF6-443E-B41D-9E13F33A20D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70C225-6134-4ACB-AAF4-20E750817C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57315" yWindow="0" windowWidth="20955" windowHeight="16665" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
+    <workbookView xWindow="-26880" yWindow="2040" windowWidth="23265" windowHeight="17910" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     Q2 guidance: 463-465m</t>
       </text>
     </comment>
-    <comment ref="S10" authorId="5" shapeId="0" xr:uid="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
+    <comment ref="AC10" authorId="5" shapeId="0" xr:uid="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Billings</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Auth</t>
   </si>
   <si>
@@ -281,12 +278,39 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -330,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,13 +375,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0AD06A59-0012-4010-947C-CA61BEBDA8AD}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,16 +402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -397,8 +426,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7293428" y="59871"/>
-          <a:ext cx="0" cy="7004958"/>
+          <a:off x="11560628" y="0"/>
+          <a:ext cx="0" cy="8147958"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -423,13 +452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
@@ -481,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -627,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -769,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,7 +821,7 @@
   <threadedComment ref="M10" dT="2022-09-01T17:49:56.79" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{4212C041-70CB-45C7-B4C1-50DB0EFB9C60}">
     <text>Q2 guidance: 463-465m</text>
   </threadedComment>
-  <threadedComment ref="S10" dT="2022-09-01T17:50:45.64" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
+  <threadedComment ref="AC10" dT="2022-09-01T17:50:45.64" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
     <text>Q4 guidance: 1780m-1790m
 Q1 guidance: 1805m-1815m
 Q2 guidance: 1812m-1820m</text>
@@ -802,77 +831,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831B94A9-2DE8-4AD4-B4E5-5ABB22FA282E}">
-  <dimension ref="B2:Q7"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f>160.950261+7.276091</f>
+        <v>168.22635200000002</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>+K2*K3</f>
+        <v>16486.182496000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <f>322+1998</f>
+        <v>2320</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1155</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="3">
-        <f>+P2*P3</f>
-        <v>9263</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2477</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2195</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="3">
-        <f>+P4-P5+P6</f>
-        <v>8981</v>
+      <c r="K7" s="3">
+        <f>+K4-K5+K6</f>
+        <v>15321.182496000001</v>
       </c>
     </row>
   </sheetData>
@@ -882,28 +913,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD27387-6724-4091-A478-2799CE710CF0}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="3" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="L2" s="10">
+        <v>44773</v>
+      </c>
+      <c r="M2" s="10">
+        <v>44865</v>
+      </c>
+      <c r="N2" s="10">
+        <v>44957</v>
+      </c>
+      <c r="O2" s="10">
+        <v>45046</v>
+      </c>
+      <c r="P2" s="10">
+        <v>45138</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>45230</v>
+      </c>
+      <c r="R2" s="10">
+        <v>45322</v>
+      </c>
+      <c r="S2" s="10">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -940,17 +1001,41 @@
       <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="Q3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
@@ -972,8 +1057,18 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
@@ -997,8 +1092,18 @@
         <v>1545</v>
       </c>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
@@ -1020,8 +1125,18 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1051,10 +1166,34 @@
       <c r="L8" s="4">
         <v>435.38400000000001</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="4">
+        <v>466</v>
+      </c>
+      <c r="N8" s="4">
+        <v>495</v>
+      </c>
+      <c r="O8" s="4">
+        <v>503</v>
+      </c>
+      <c r="P8" s="4">
+        <v>542</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>569</v>
+      </c>
+      <c r="R8" s="4">
+        <v>591</v>
+      </c>
+      <c r="S8" s="4">
+        <v>603</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1084,10 +1223,34 @@
       <c r="L9" s="4">
         <v>16.422999999999998</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="4">
+        <v>15</v>
+      </c>
+      <c r="N9" s="4">
+        <v>15</v>
+      </c>
+      <c r="O9" s="4">
+        <v>15</v>
+      </c>
+      <c r="P9" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4">
+        <v>14</v>
+      </c>
+      <c r="S9" s="4">
+        <v>14</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1126,21 +1289,48 @@
         <v>451.80700000000002</v>
       </c>
       <c r="M10" s="6">
-        <v>470</v>
+        <f>+M8+M9</f>
+        <v>481</v>
       </c>
       <c r="N10" s="6">
-        <v>480</v>
-      </c>
-      <c r="R10" s="5">
+        <f>+N8+N9</f>
+        <v>510</v>
+      </c>
+      <c r="O10" s="6">
+        <f>+O8+O9</f>
+        <v>518</v>
+      </c>
+      <c r="P10" s="6">
+        <f>+P8+P9</f>
+        <v>556</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>+Q8+Q9</f>
+        <v>584</v>
+      </c>
+      <c r="R10" s="6">
+        <f>+R8+R9</f>
+        <v>605</v>
+      </c>
+      <c r="S10" s="6">
+        <f>+S8+S9</f>
+        <v>617</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="AB10" s="5">
         <f>SUM(G10:J10)</f>
         <v>1300.201</v>
       </c>
-      <c r="S10" s="5">
+      <c r="AC10" s="5">
         <f>SUM(K10:N10)</f>
-        <v>1816.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1857.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1171,62 +1361,106 @@
         <v>137.69399999999999</v>
       </c>
       <c r="M11" s="4">
-        <f>+M10-M12</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" ref="N11" si="1">+N10-N12</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="O11" s="4">
+        <v>142</v>
+      </c>
+      <c r="P11" s="4">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>145</v>
+      </c>
+      <c r="R11" s="4">
+        <f>126+19</f>
+        <v>145</v>
+      </c>
+      <c r="S11" s="4">
+        <v>148</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:L12" si="2">+E10-E11</f>
+        <f t="shared" ref="E12:L12" si="1">+E10-E11</f>
         <v>160.471</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>173.60000000000002</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>184.88299999999998</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>214.39400000000001</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>241.006</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>263.51299999999998</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>283.77800000000002</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>314.11300000000006</v>
       </c>
       <c r="M12" s="4">
-        <f>+M10*0.7</f>
-        <v>329</v>
+        <f>+M10-M11</f>
+        <v>343</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12" si="3">+N10*0.7</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+N10-N11</f>
+        <v>371</v>
+      </c>
+      <c r="O12" s="4">
+        <f>+O10-O11</f>
+        <v>376</v>
+      </c>
+      <c r="P12" s="4">
+        <f>+P10-P11</f>
+        <v>407</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>+Q10-Q11</f>
+        <v>439</v>
+      </c>
+      <c r="R12" s="4">
+        <f>+R10-R11</f>
+        <v>460</v>
+      </c>
+      <c r="S12" s="4">
+        <f>+S10-S11</f>
+        <v>469</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1257,15 +1491,33 @@
         <v>155.83600000000001</v>
       </c>
       <c r="M13" s="4">
-        <f>+I13*1.15</f>
-        <v>150.11524999999997</v>
+        <v>148</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13:N15" si="4">+J13*1.15</f>
-        <v>169.57210000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="O13" s="4">
+        <v>163</v>
+      </c>
+      <c r="P13" s="4">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>165</v>
+      </c>
+      <c r="R13" s="4">
+        <v>156</v>
+      </c>
+      <c r="S13" s="4">
+        <v>163</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1296,15 +1548,33 @@
         <v>264.65300000000002</v>
       </c>
       <c r="M14" s="4">
-        <f>+I14*1.15</f>
-        <v>234.45969999999997</v>
+        <v>290</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="4"/>
-        <v>254.81354999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="O14" s="4">
+        <v>256</v>
+      </c>
+      <c r="P14" s="4">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>270</v>
+      </c>
+      <c r="R14" s="4">
+        <v>249</v>
+      </c>
+      <c r="S14" s="4">
+        <v>236</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1335,62 +1605,105 @@
         <v>101.68600000000001</v>
       </c>
       <c r="M15" s="4">
-        <f>+I15*1.15</f>
-        <v>120.92134999999999</v>
+        <v>98</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="4"/>
-        <v>125.24419999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="4">
+        <v>110</v>
+      </c>
+      <c r="P15" s="4">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>111</v>
+      </c>
+      <c r="R15" s="4">
+        <v>110</v>
+      </c>
+      <c r="S15" s="4">
+        <v>117</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:L16" si="5">SUM(E13:E15)</f>
+        <f t="shared" ref="E16:L16" si="2">SUM(E13:E15)</f>
         <v>212.447</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>228.196</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>275.56399999999996</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>477.834</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>439.56200000000001</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>477.93900000000002</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>523.46699999999998</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>522.17500000000007</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="6">SUM(M13:M15)</f>
-        <v>505.49629999999991</v>
+        <f t="shared" ref="M16:N16" si="3">SUM(M13:M15)</f>
+        <v>536</v>
       </c>
       <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16:P16" si="4">SUM(O13:O15)</f>
+        <v>529</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="4"/>
+        <v>552</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" ref="Q16" si="5">SUM(Q13:Q15)</f>
+        <v>546</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" ref="R16:S16" si="6">SUM(R13:R15)</f>
+        <v>515</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="6"/>
-        <v>549.62985000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1430,14 +1743,39 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17" si="8">M12-M16</f>
-        <v>-176.49629999999991</v>
+        <v>-193</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17" si="9">N12-N16</f>
-        <v>-213.62985000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N17:O17" si="9">N12-N16</f>
+        <v>-142</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="9"/>
+        <v>-153</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" ref="P17" si="10">P12-P16</f>
+        <v>-145</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" ref="Q17" si="11">Q12-Q16</f>
+        <v>-107</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" ref="R17:S17" si="12">R12-R16</f>
+        <v>-55</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="12"/>
+        <v>-47</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1475,57 +1813,112 @@
         <f>-2.915+4.721</f>
         <v>1.806</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="4">
+        <f>-3+5</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
+        <f>-2+10</f>
+        <v>8</v>
+      </c>
+      <c r="O18" s="4">
+        <f>-3+17</f>
+        <v>14</v>
+      </c>
+      <c r="P18" s="4">
+        <f>-2+18</f>
+        <v>16</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>-2+21</f>
+        <v>19</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="4">
+        <f>-2+27</f>
+        <v>25</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <f t="shared" ref="E19:N19" si="10">+E17+E18</f>
+        <f t="shared" ref="E19:N19" si="13">+E17+E18</f>
         <v>-72.465999999999994</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-75.038999999999973</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-109.08599999999998</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-284.101</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-220.64400000000001</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-235.68600000000004</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-240.85299999999995</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-206.256</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="10"/>
-        <v>-176.49629999999991</v>
+        <f t="shared" si="13"/>
+        <v>-191</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="10"/>
-        <v>-213.62985000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>-134</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" ref="O19:P19" si="14">+O17+O18</f>
+        <v>-139</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="14"/>
+        <v>-129</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" ref="Q19" si="15">+Q17+Q18</f>
+        <v>-88</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" ref="R19:S19" si="16">+R17+R18</f>
+        <v>-56</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="16"/>
+        <v>-22</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1555,102 +1948,176 @@
       <c r="L20" s="4">
         <v>4.2160000000000002</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="4">
+        <v>4</v>
+      </c>
+      <c r="N20" s="4">
+        <v>4</v>
+      </c>
+      <c r="O20" s="4">
+        <v>4</v>
+      </c>
+      <c r="P20" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>7</v>
+      </c>
+      <c r="R20" s="4">
+        <v>18</v>
+      </c>
+      <c r="S20" s="4">
+        <v>18</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:N21" si="11">+E19-E20</f>
+        <f t="shared" ref="E21:N21" si="17">+E19-E20</f>
         <v>-72.674999999999997</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-75.805999999999969</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-109.09599999999999</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-276.63900000000001</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-221.31100000000001</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-241.18600000000004</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-242.71299999999997</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-210.47200000000001</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="11"/>
-        <v>-176.49629999999991</v>
+        <f t="shared" si="17"/>
+        <v>-195</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="11"/>
-        <v>-213.62985000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>-138</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21:P21" si="18">+O19-O20</f>
+        <v>-143</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="18"/>
+        <v>-136</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" ref="Q21" si="19">+Q19-Q20</f>
+        <v>-95</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21:S21" si="20">+R19-R20</f>
+        <v>-74</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="20"/>
+        <v>-40</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:N22" si="12">E21/E23</f>
+        <f t="shared" ref="E22:N22" si="21">E21/E23</f>
         <v>-0.56418994977215031</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-0.58250472575266232</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-0.82788346980125516</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1.8277251795424065</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1.4393649678711726</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1.5588547052740436</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1.5571002405773855</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-1.3371791613722999</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.1213233799237605</v>
+        <f t="shared" si="21"/>
+        <v>-1.2286715225445473</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.3572417407878019</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>-0.86229520488883882</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" ref="O22:P22" si="22">O21/O23</f>
+        <v>-0.88642041122468584</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="22"/>
+        <v>-0.83561180916100886</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" ref="Q22" si="23">Q21/Q23</f>
+        <v>-0.57792567267506589</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" ref="R22:S22" si="24">R21/R23</f>
+        <v>-0.44188337861642729</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="24"/>
+        <v>-0.23885588033320396</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1679,15 +2146,33 @@
         <v>157.4</v>
       </c>
       <c r="M23" s="4">
-        <f>+L23</f>
-        <v>157.4</v>
+        <v>158.708</v>
       </c>
       <c r="N23" s="4">
-        <f>+M23</f>
-        <v>157.4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+        <v>160.03800000000001</v>
+      </c>
+      <c r="O23" s="4">
+        <v>161.32300000000001</v>
+      </c>
+      <c r="P23" s="4">
+        <v>162.755</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>164.381</v>
+      </c>
+      <c r="R23" s="4">
+        <v>167.465</v>
+      </c>
+      <c r="S23" s="4">
+        <v>167.465</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
@@ -1709,43 +2194,68 @@
       </c>
       <c r="M25" s="8">
         <f>+M10/I10-1</f>
-        <v>0.34025322231093869</v>
+        <v>0.37162085091821595</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25" si="13">+N10/J10-1</f>
-        <v>0.25321462605903178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N25:P25" si="25">+N10/J10-1</f>
+        <v>0.33154054018772117</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="25"/>
+        <v>0.24836423315973533</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="25"/>
+        <v>0.23061395684440478</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:S25" si="26">+Q10/M10-1</f>
+        <v>0.2141372141372142</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="26"/>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="26"/>
+        <v>0.19111969111969107</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:K26" si="14">+E12/E10</f>
+        <f t="shared" ref="E26:K26" si="27">+E12/E10</f>
         <v>0.73820838259445487</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.739541620516316</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.73656805016613136</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.67953724247226621</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.68725333637504271</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.6879965536597783</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>0.68389634238919572</v>
       </c>
       <c r="L26" s="8">
@@ -1754,14 +2264,39 @@
       </c>
       <c r="M26" s="8">
         <f>+M12/M10</f>
-        <v>0.7</v>
+        <v>0.71309771309771308</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" ref="N26" si="15">+N12/N10</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N26:O26" si="28">+N12/N10</f>
+        <v>0.72745098039215683</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="28"/>
+        <v>0.72586872586872586</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26" si="29">+P12/P10</f>
+        <v>0.73201438848920863</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" ref="Q26" si="30">+Q12/Q10</f>
+        <v>0.75171232876712324</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" ref="R26:S26" si="31">+R12/R10</f>
+        <v>0.76033057851239672</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="31"/>
+        <v>0.76012965964343593</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="28" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -1783,8 +2318,18 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1804,8 +2349,18 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1827,8 +2382,18 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1849,8 +2414,18 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1870,8 +2445,18 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1891,8 +2476,18 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1914,8 +2509,18 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1935,8 +2540,18 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +2564,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <f t="shared" ref="K36" si="16">SUM(K28:K35)</f>
+        <f t="shared" ref="K36" si="32">SUM(K28:K35)</f>
         <v>9045.6810000000005</v>
       </c>
       <c r="L36" s="4">
@@ -1958,8 +2573,18 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="38" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -1979,8 +2604,18 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -2000,8 +2635,18 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -2021,8 +2666,18 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2044,8 +2699,18 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2067,8 +2732,18 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -2088,8 +2763,18 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
@@ -2109,8 +2794,18 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
@@ -2130,8 +2825,18 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
@@ -2153,6 +2858,16 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/OKTA.xlsx
+++ b/OKTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70C225-6134-4ACB-AAF4-20E750817C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC1E97-B2B5-48C1-9CE6-F7BD165BE06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26880" yWindow="2040" windowWidth="23265" windowHeight="17910" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
+    <workbookView xWindow="-27825" yWindow="360" windowWidth="27600" windowHeight="20535" activeTab="1" xr2:uid="{45C6FE0B-6151-49F1-9E4F-580AA412CBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={0C17F5D6-955C-468A-A428-9B873444F7A6}</author>
   </authors>
   <commentList>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{982F6261-82C2-4888-A5B2-7F180FB48D20}">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{982F6261-82C2-4888-A5B2-7F180FB48D20}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
     Q2 guidance: 1.54-1.55B</t>
       </text>
     </comment>
-    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{5079672D-4A0C-42B7-9146-861D71216A70}">
+    <comment ref="J14" authorId="1" shapeId="0" xr:uid="{5079672D-4A0C-42B7-9146-861D71216A70}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
     Q3: 358-360m</t>
       </text>
     </comment>
-    <comment ref="K10" authorId="2" shapeId="0" xr:uid="{5ADB5477-4EAC-4DFC-8399-235D928B0293}">
+    <comment ref="K14" authorId="2" shapeId="0" xr:uid="{5ADB5477-4EAC-4DFC-8399-235D928B0293}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
     Q4 guidance: 388-390m</t>
       </text>
     </comment>
-    <comment ref="L10" authorId="3" shapeId="0" xr:uid="{F2B31FD4-143B-4D03-A3F1-C40117F4B1AB}">
+    <comment ref="L14" authorId="3" shapeId="0" xr:uid="{F2B31FD4-143B-4D03-A3F1-C40117F4B1AB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
     Q1 guidance: 428-430m</t>
       </text>
     </comment>
-    <comment ref="M10" authorId="4" shapeId="0" xr:uid="{4212C041-70CB-45C7-B4C1-50DB0EFB9C60}">
+    <comment ref="M14" authorId="4" shapeId="0" xr:uid="{4212C041-70CB-45C7-B4C1-50DB0EFB9C60}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
     Q2 guidance: 463-465m</t>
       </text>
     </comment>
-    <comment ref="AC10" authorId="5" shapeId="0" xr:uid="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
+    <comment ref="AB14" authorId="5" shapeId="0" xr:uid="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -253,9 +253,6 @@
     <t>RPO</t>
   </si>
   <si>
-    <t>FY2021</t>
-  </si>
-  <si>
     <t>FY2022</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>FQ424</t>
   </si>
   <si>
-    <t>Q124</t>
-  </si>
-  <si>
     <t>FQ125</t>
   </si>
   <si>
@@ -305,12 +299,87 @@
   </si>
   <si>
     <t>FQ425</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Amortization of DC</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>ACV &gt;100k</t>
+  </si>
+  <si>
+    <t>NRR</t>
+  </si>
+  <si>
+    <t>FY2024</t>
+  </si>
+  <si>
+    <t>FY2025</t>
+  </si>
+  <si>
+    <t>FY2026</t>
+  </si>
+  <si>
+    <t>TTM CFFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -354,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,9 +444,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,16 +473,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -426,8 +497,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11560628" y="0"/>
-          <a:ext cx="0" cy="8147958"/>
+          <a:off x="12719956" y="0"/>
+          <a:ext cx="0" cy="12110357"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -452,16 +523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -476,8 +547,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10989128" y="32657"/>
-          <a:ext cx="0" cy="8147958"/>
+          <a:off x="17591313" y="27215"/>
+          <a:ext cx="0" cy="11996057"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -806,22 +877,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M5" dT="2022-09-01T17:50:11.25" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{982F6261-82C2-4888-A5B2-7F180FB48D20}">
+  <threadedComment ref="M9" dT="2022-09-01T17:50:11.25" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{982F6261-82C2-4888-A5B2-7F180FB48D20}">
     <text>Q2 guidance: 1.54-1.55B</text>
   </threadedComment>
-  <threadedComment ref="J10" dT="2022-09-02T02:02:53.13" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{5079672D-4A0C-42B7-9146-861D71216A70}">
+  <threadedComment ref="J14" dT="2022-09-02T02:02:53.13" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{5079672D-4A0C-42B7-9146-861D71216A70}">
     <text>Q3: 358-360m</text>
   </threadedComment>
-  <threadedComment ref="K10" dT="2022-09-02T01:35:28.15" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{5ADB5477-4EAC-4DFC-8399-235D928B0293}">
+  <threadedComment ref="K14" dT="2022-09-02T01:35:28.15" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{5ADB5477-4EAC-4DFC-8399-235D928B0293}">
     <text>Q4 guidance: 388-390m</text>
   </threadedComment>
-  <threadedComment ref="L10" dT="2022-09-02T01:32:07.61" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{F2B31FD4-143B-4D03-A3F1-C40117F4B1AB}">
+  <threadedComment ref="L14" dT="2022-09-02T01:32:07.61" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{F2B31FD4-143B-4D03-A3F1-C40117F4B1AB}">
     <text>Q1 guidance: 428-430m</text>
   </threadedComment>
-  <threadedComment ref="M10" dT="2022-09-01T17:49:56.79" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{4212C041-70CB-45C7-B4C1-50DB0EFB9C60}">
+  <threadedComment ref="M14" dT="2022-09-01T17:49:56.79" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{4212C041-70CB-45C7-B4C1-50DB0EFB9C60}">
     <text>Q2 guidance: 463-465m</text>
   </threadedComment>
-  <threadedComment ref="AC10" dT="2022-09-01T17:50:45.64" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
+  <threadedComment ref="AB14" dT="2022-09-01T17:50:45.64" personId="{6737C958-64A4-48FB-A9FC-F28332CDF3FF}" id="{0C17F5D6-955C-468A-A428-9B873444F7A6}">
     <text>Q4 guidance: 1780m-1790m
 Q1 guidance: 1805m-1815m
 Q2 guidance: 1812m-1820m</text>
@@ -833,21 +904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831B94A9-2DE8-4AD4-B4E5-5ABB22FA282E}">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>98</v>
+        <v>80.39</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -855,11 +924,11 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f>160.950261+7.276091</f>
-        <v>168.22635200000002</v>
+        <f>162.413965+7.448091</f>
+        <v>169.862056</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -868,7 +937,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>16486.182496000001</v>
+        <v>13655.210681839999</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -876,11 +945,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>322+1998</f>
-        <v>2320</v>
+        <f>515+1843</f>
+        <v>2358</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -888,22 +957,22 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>1155</v>
+        <v>1113</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>15321.182496000001</v>
+        <v>12410.210681839999</v>
       </c>
     </row>
   </sheetData>
@@ -913,58 +982,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD27387-6724-4091-A478-2799CE710CF0}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AE73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="14" width="8.7109375" style="2" customWidth="1"/>
+    <col min="15" max="21" width="8.85546875" style="2" customWidth="1"/>
+    <col min="22" max="24" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L2" s="10">
+    <row r="2" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
         <v>44773</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>44865</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>44957</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="11">
         <v>45046</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="11">
         <v>45138</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>45230</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="11">
         <v>45322</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="11">
         <v>45412</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="T2" s="11">
+        <v>45504</v>
+      </c>
+      <c r="U2" s="11">
+        <v>45596</v>
+      </c>
+      <c r="V2" s="11">
+        <f>+U2+91</f>
+        <v>45687</v>
+      </c>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="AA2" s="10">
+        <v>44592</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>44957</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>45322</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>45688</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1002,28 +1106,28 @@
         <v>19</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>50</v>
@@ -1032,1402 +1136,1767 @@
         <v>51</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>17600</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>3100</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>3930</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2690</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2710</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2790</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>1350</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1410</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1500</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1545</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>603</v>
-      </c>
-      <c r="K6" s="4">
-        <v>389</v>
-      </c>
-      <c r="L6" s="4">
-        <v>491</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>206.74299999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>225.4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>240.05799999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>303.12099999999998</v>
-      </c>
-      <c r="I8" s="4">
-        <v>336.702</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4">
-        <v>369.32900000000001</v>
+        <v>2690</v>
       </c>
       <c r="K8" s="4">
-        <v>397.94099999999997</v>
+        <v>2710</v>
       </c>
       <c r="L8" s="4">
-        <v>435.38400000000001</v>
-      </c>
-      <c r="M8" s="4">
-        <v>466</v>
-      </c>
-      <c r="N8" s="4">
-        <v>495</v>
-      </c>
-      <c r="O8" s="4">
-        <v>503</v>
-      </c>
-      <c r="P8" s="4">
-        <v>542</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>569</v>
-      </c>
-      <c r="R8" s="4">
-        <v>591</v>
-      </c>
-      <c r="S8" s="4">
-        <v>603</v>
-      </c>
+        <v>2790</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4">
+        <v>3659</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>2694</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>3007</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>10.635999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>9.34</v>
-      </c>
-      <c r="G9" s="4">
-        <v>10.948</v>
-      </c>
-      <c r="H9" s="4">
-        <v>12.379</v>
-      </c>
-      <c r="I9" s="4">
-        <v>13.978</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4">
-        <v>13.686</v>
+        <v>1350</v>
       </c>
       <c r="K9" s="4">
-        <v>17.001999999999999</v>
+        <v>1410</v>
       </c>
       <c r="L9" s="4">
-        <v>16.422999999999998</v>
+        <v>1500</v>
       </c>
       <c r="M9" s="4">
-        <v>15</v>
-      </c>
-      <c r="N9" s="4">
-        <v>15</v>
-      </c>
-      <c r="O9" s="4">
-        <v>15</v>
-      </c>
-      <c r="P9" s="4">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>15</v>
-      </c>
-      <c r="R9" s="4">
-        <v>14</v>
-      </c>
-      <c r="S9" s="4">
-        <v>14</v>
-      </c>
+        <v>1545</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="U9" s="4">
+        <v>2062</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f t="shared" ref="E10:L10" si="0">+E8+E9</f>
-        <v>217.37899999999999</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>234.74</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>251.006</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>315.5</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>350.68</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>383.01499999999999</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>414.94299999999998</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="0"/>
-        <v>451.80700000000002</v>
-      </c>
-      <c r="M10" s="6">
-        <f>+M8+M9</f>
-        <v>481</v>
-      </c>
-      <c r="N10" s="6">
-        <f>+N8+N9</f>
-        <v>510</v>
-      </c>
-      <c r="O10" s="6">
-        <f>+O8+O9</f>
-        <v>518</v>
-      </c>
-      <c r="P10" s="6">
-        <f>+P8+P9</f>
-        <v>556</v>
-      </c>
-      <c r="Q10" s="6">
-        <f>+Q8+Q9</f>
-        <v>584</v>
-      </c>
-      <c r="R10" s="6">
-        <f>+R8+R9</f>
-        <v>605</v>
-      </c>
-      <c r="S10" s="6">
-        <f>+S8+S9</f>
-        <v>617</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="AB10" s="5">
-        <f>SUM(G10:J10)</f>
-        <v>1300.201</v>
-      </c>
-      <c r="AC10" s="5">
-        <f>SUM(K10:N10)</f>
-        <v>1857.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>56.908000000000001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>61.14</v>
-      </c>
-      <c r="G11" s="4">
-        <v>66.123000000000005</v>
-      </c>
-      <c r="H11" s="4">
-        <v>101.10599999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>109.67400000000001</v>
-      </c>
-      <c r="J11" s="4">
-        <v>119.502</v>
-      </c>
-      <c r="K11" s="4">
-        <v>131.16499999999999</v>
-      </c>
-      <c r="L11" s="4">
-        <v>137.69399999999999</v>
-      </c>
-      <c r="M11" s="4">
-        <v>138</v>
-      </c>
-      <c r="N11" s="4">
-        <v>139</v>
-      </c>
-      <c r="O11" s="4">
-        <v>142</v>
-      </c>
-      <c r="P11" s="4">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>145</v>
-      </c>
-      <c r="R11" s="4">
-        <f>126+19</f>
-        <v>145</v>
-      </c>
-      <c r="S11" s="4">
-        <v>148</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>1351</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1684</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>603</v>
+      </c>
+      <c r="K10" s="4">
+        <v>389</v>
+      </c>
+      <c r="L10" s="4">
+        <v>491</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="12" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:L12" si="1">+E10-E11</f>
-        <v>160.471</v>
+        <v>206.74299999999999</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>173.60000000000002</v>
+        <v>225.4</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>184.88299999999998</v>
+        <v>240.05799999999999</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>214.39400000000001</v>
+        <v>303.12099999999998</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>241.006</v>
+        <v>336.702</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>263.51299999999998</v>
+        <v>369.32900000000001</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>283.77800000000002</v>
+        <v>397.94099999999997</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>314.11300000000006</v>
+        <v>435.38400000000001</v>
       </c>
       <c r="M12" s="4">
-        <f>+M10-M11</f>
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="N12" s="4">
-        <f>+N10-N11</f>
-        <v>371</v>
+        <v>495</v>
       </c>
       <c r="O12" s="4">
-        <f>+O10-O11</f>
-        <v>376</v>
+        <v>503</v>
       </c>
       <c r="P12" s="4">
-        <f>+P10-P11</f>
-        <v>407</v>
+        <v>542</v>
       </c>
       <c r="Q12" s="4">
-        <f>+Q10-Q11</f>
-        <v>439</v>
+        <v>569</v>
       </c>
       <c r="R12" s="4">
-        <f>+R10-R11</f>
-        <v>460</v>
+        <v>591</v>
       </c>
       <c r="S12" s="4">
-        <f>+S10-S11</f>
-        <v>469</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+        <v>603</v>
+      </c>
+      <c r="T12" s="4">
+        <v>632</v>
+      </c>
+      <c r="U12" s="4">
+        <v>651</v>
+      </c>
+      <c r="V12" s="4">
+        <f>+V14-V13</f>
+        <v>654</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <f>SUM(G12:J12)</f>
+        <v>1249.21</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>SUM(K12:N12)</f>
+        <v>1794.325</v>
+      </c>
+      <c r="AC12" s="3">
+        <f>SUM(O12:R12)</f>
+        <v>2205</v>
+      </c>
+      <c r="AD12" s="3">
+        <f>SUM(S12:V12)</f>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <v>58.15</v>
+        <v>10.635999999999999</v>
       </c>
       <c r="F13" s="4">
-        <v>62.316000000000003</v>
+        <v>9.34</v>
       </c>
       <c r="G13" s="4">
-        <v>68.863</v>
+        <v>10.948</v>
       </c>
       <c r="H13" s="4">
-        <v>122.407</v>
+        <v>12.379</v>
       </c>
       <c r="I13" s="4">
-        <v>130.535</v>
+        <v>13.978</v>
       </c>
       <c r="J13" s="4">
-        <v>147.45400000000001</v>
+        <v>13.686</v>
       </c>
       <c r="K13" s="4">
-        <v>161.65100000000001</v>
+        <v>17.001999999999999</v>
       </c>
       <c r="L13" s="4">
-        <v>155.83600000000001</v>
+        <v>16.422999999999998</v>
       </c>
       <c r="M13" s="4">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="N13" s="4">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="O13" s="4">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="P13" s="4">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="4">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="R13" s="4">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="S13" s="4">
-        <v>163</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="T13" s="4">
+        <v>14</v>
+      </c>
+      <c r="U13" s="4">
+        <v>14</v>
+      </c>
+      <c r="V13" s="4">
+        <v>14</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>109.812</v>
-      </c>
-      <c r="F14" s="4">
-        <v>115.173</v>
-      </c>
-      <c r="G14" s="4">
-        <v>146.52099999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <v>198.35</v>
-      </c>
-      <c r="I14" s="4">
-        <v>203.87799999999999</v>
-      </c>
-      <c r="J14" s="4">
-        <v>221.577</v>
-      </c>
-      <c r="K14" s="4">
-        <v>252.47300000000001</v>
-      </c>
-      <c r="L14" s="4">
-        <v>264.65300000000002</v>
-      </c>
-      <c r="M14" s="4">
-        <v>290</v>
-      </c>
-      <c r="N14" s="4">
-        <v>259</v>
-      </c>
-      <c r="O14" s="4">
-        <v>256</v>
-      </c>
-      <c r="P14" s="4">
-        <v>261</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>270</v>
-      </c>
-      <c r="R14" s="4">
-        <v>249</v>
-      </c>
-      <c r="S14" s="4">
-        <v>236</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <f>SUM(G13:J13)</f>
+        <v>50.991</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>SUM(K13:N13)</f>
+        <v>63.424999999999997</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>SUM(O13:R13)</f>
+        <v>58</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>SUM(S13:V13)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <f t="shared" ref="E14:L14" si="0">+E12+E13</f>
+        <v>217.37899999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>234.74</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>251.006</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>315.5</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>350.68</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>383.01499999999999</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>414.94299999999998</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="0"/>
+        <v>451.80700000000002</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" ref="M14:U14" si="1">+M12+M13</f>
+        <v>481</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="1"/>
+        <v>556</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="1"/>
+        <v>605</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>617</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+      <c r="V14" s="6">
+        <v>668</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="AA14" s="5">
+        <f>SUM(G14:J14)</f>
+        <v>1300.201</v>
+      </c>
+      <c r="AB14" s="5">
+        <f>SUM(K14:N14)</f>
+        <v>1857.75</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>SUM(O14:R14)</f>
+        <v>2263</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>SUM(S14:V14)</f>
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>44.484999999999999</v>
+        <v>56.908000000000001</v>
       </c>
       <c r="F15" s="4">
-        <v>50.707000000000001</v>
+        <v>61.14</v>
       </c>
       <c r="G15" s="4">
-        <v>60.18</v>
+        <v>66.123000000000005</v>
       </c>
       <c r="H15" s="4">
-        <v>157.077</v>
+        <v>101.10599999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>105.149</v>
+        <v>109.67400000000001</v>
       </c>
       <c r="J15" s="4">
-        <v>108.908</v>
+        <v>119.502</v>
       </c>
       <c r="K15" s="4">
-        <v>109.343</v>
+        <v>131.16499999999999</v>
       </c>
       <c r="L15" s="4">
-        <v>101.68600000000001</v>
+        <v>137.69399999999999</v>
       </c>
       <c r="M15" s="4">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="N15" s="4">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="O15" s="4">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="P15" s="4">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q15" s="4">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="R15" s="4">
-        <v>110</v>
+        <f>126+19</f>
+        <v>145</v>
       </c>
       <c r="S15" s="4">
-        <v>117</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="T15" s="4">
+        <f>137+18</f>
+        <v>155</v>
+      </c>
+      <c r="U15" s="4">
+        <v>157</v>
+      </c>
+      <c r="V15" s="4">
+        <f>+V14-V16</f>
+        <v>160.32</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <f>SUM(G15:J15)</f>
+        <v>396.40500000000003</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>SUM(K15:N15)</f>
+        <v>545.85899999999992</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>SUM(O15:R15)</f>
+        <v>581</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>SUM(S15:V15)</f>
+        <v>620.31999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:L16" si="2">SUM(E13:E15)</f>
-        <v>212.447</v>
+        <f t="shared" ref="E16:L16" si="2">+E14-E15</f>
+        <v>160.471</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>228.196</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="2"/>
-        <v>275.56399999999996</v>
+        <v>184.88299999999998</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="2"/>
-        <v>477.834</v>
+        <v>214.39400000000001</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>439.56200000000001</v>
+        <v>241.006</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>477.93900000000002</v>
+        <v>263.51299999999998</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>523.46699999999998</v>
+        <v>283.77800000000002</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>522.17500000000007</v>
+        <v>314.11300000000006</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="3">SUM(M13:M15)</f>
-        <v>536</v>
+        <f t="shared" ref="M16:S16" si="3">+M14-M15</f>
+        <v>343</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="3"/>
-        <v>513</v>
+        <v>371</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16:P16" si="4">SUM(O13:O15)</f>
-        <v>529</v>
+        <f t="shared" si="3"/>
+        <v>376</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="4"/>
-        <v>552</v>
+        <f t="shared" si="3"/>
+        <v>407</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" ref="Q16" si="5">SUM(Q13:Q15)</f>
-        <v>546</v>
+        <f t="shared" si="3"/>
+        <v>439</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" ref="R16:S16" si="6">SUM(R13:R15)</f>
-        <v>515</v>
+        <f t="shared" si="3"/>
+        <v>460</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="6"/>
-        <v>516</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="T16" s="4">
+        <f>+T14-T15</f>
+        <v>491</v>
+      </c>
+      <c r="U16" s="4">
+        <f>+U14-U15</f>
+        <v>508</v>
+      </c>
+      <c r="V16" s="4">
+        <f>+V14*0.76</f>
+        <v>507.68</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3">
+        <f>+AA14-AA15</f>
+        <v>903.79600000000005</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" ref="AB16:AD16" si="4">+AB14-AB15</f>
+        <v>1311.8910000000001</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="4"/>
+        <v>1682</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="4"/>
+        <v>1975.68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f t="shared" ref="E17:L17" si="7">E12-E16</f>
-        <v>-51.975999999999999</v>
+        <v>58.15</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
-        <v>-54.595999999999975</v>
+        <v>62.316000000000003</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
-        <v>-90.680999999999983</v>
+        <v>68.863</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="7"/>
-        <v>-263.44</v>
+        <v>122.407</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="7"/>
-        <v>-198.55600000000001</v>
+        <v>130.535</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="7"/>
-        <v>-214.42600000000004</v>
+        <v>147.45400000000001</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="7"/>
-        <v>-239.68899999999996</v>
+        <v>161.65100000000001</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="7"/>
-        <v>-208.06200000000001</v>
+        <v>155.83600000000001</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" ref="M17" si="8">M12-M16</f>
-        <v>-193</v>
+        <v>148</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17:O17" si="9">N12-N16</f>
-        <v>-142</v>
+        <v>154</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="9"/>
-        <v>-153</v>
+        <v>163</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17" si="10">P12-P16</f>
-        <v>-145</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" ref="Q17" si="11">Q12-Q16</f>
-        <v>-107</v>
+        <v>165</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:S17" si="12">R12-R16</f>
-        <v>-55</v>
+        <v>156</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="12"/>
-        <v>-47</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="T17" s="4">
+        <v>164</v>
+      </c>
+      <c r="U17" s="4">
+        <v>158</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" ref="V17:V18" si="5">U17</f>
+        <v>158</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <f>SUM(G17:J17)</f>
+        <v>469.25899999999996</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>SUM(K17:N17)</f>
+        <v>619.48700000000008</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>SUM(O17:R17)</f>
+        <v>656</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>SUM(S17:V17)</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f>-22.368+1.878</f>
-        <v>-20.49</v>
+        <v>109.812</v>
       </c>
       <c r="F18" s="4">
-        <f>-22.597+2.154</f>
-        <v>-20.443000000000001</v>
+        <v>115.173</v>
       </c>
       <c r="G18" s="4">
-        <f>-22.76+4.355</f>
-        <v>-18.405000000000001</v>
+        <v>146.52099999999999</v>
       </c>
       <c r="H18" s="4">
-        <f>-22.872+2.211</f>
-        <v>-20.661000000000001</v>
+        <v>198.35</v>
       </c>
       <c r="I18" s="4">
-        <f>-23.144+1.056</f>
-        <v>-22.087999999999997</v>
+        <v>203.87799999999999</v>
       </c>
       <c r="J18" s="4">
-        <f>-23.406+2.146</f>
-        <v>-21.259999999999998</v>
+        <v>221.577</v>
       </c>
       <c r="K18" s="4">
-        <f>-2.868+1.704</f>
-        <v>-1.1639999999999999</v>
+        <v>252.47300000000001</v>
       </c>
       <c r="L18" s="4">
-        <f>-2.915+4.721</f>
-        <v>1.806</v>
+        <v>264.65300000000002</v>
       </c>
       <c r="M18" s="4">
-        <f>-3+5</f>
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="N18" s="4">
-        <f>-2+10</f>
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="O18" s="4">
-        <f>-3+17</f>
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="P18" s="4">
-        <f>-2+18</f>
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="4">
-        <f>-2+21</f>
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="R18" s="4">
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="S18" s="4">
-        <f>-2+27</f>
-        <v>25</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="T18" s="4">
+        <v>238</v>
+      </c>
+      <c r="U18" s="4">
+        <v>256</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <f>SUM(G18:J18)</f>
+        <v>770.32600000000002</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>SUM(K18:N18)</f>
+        <v>1066.126</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>SUM(O18:R18)</f>
+        <v>1036</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>SUM(S18:V18)</f>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <f t="shared" ref="E19:N19" si="13">+E17+E18</f>
-        <v>-72.465999999999994</v>
+        <v>44.484999999999999</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="13"/>
-        <v>-75.038999999999973</v>
+        <v>50.707000000000001</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="13"/>
-        <v>-109.08599999999998</v>
+        <v>60.18</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="13"/>
-        <v>-284.101</v>
+        <v>157.077</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="13"/>
-        <v>-220.64400000000001</v>
+        <v>105.149</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="13"/>
-        <v>-235.68600000000004</v>
+        <v>108.908</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="13"/>
-        <v>-240.85299999999995</v>
+        <v>109.343</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="13"/>
-        <v>-206.256</v>
+        <v>101.68600000000001</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="13"/>
-        <v>-191</v>
+        <v>98</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="13"/>
-        <v>-134</v>
+        <v>100</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" ref="O19:P19" si="14">+O17+O18</f>
-        <v>-139</v>
+        <v>110</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="14"/>
-        <v>-129</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" ref="Q19" si="15">+Q17+Q18</f>
-        <v>-88</v>
+        <v>111</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" ref="R19:S19" si="16">+R17+R18</f>
-        <v>-56</v>
+        <v>110</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="16"/>
-        <v>-22</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="T19" s="4">
+        <v>108</v>
+      </c>
+      <c r="U19" s="4">
+        <v>110</v>
+      </c>
+      <c r="V19" s="4">
+        <f>U19</f>
+        <v>110</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3">
+        <f>SUM(G19:J19)</f>
+        <v>431.31400000000002</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>SUM(K19:N19)</f>
+        <v>409.029</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>SUM(O19:R19)</f>
+        <v>450</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>SUM(S19:V19)</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>0.20899999999999999</v>
+        <f t="shared" ref="E20:L20" si="6">SUM(E17:E19)</f>
+        <v>212.447</v>
       </c>
       <c r="F20" s="4">
-        <v>0.76700000000000002</v>
+        <f t="shared" si="6"/>
+        <v>228.196</v>
       </c>
       <c r="G20" s="4">
-        <v>0.01</v>
+        <f t="shared" si="6"/>
+        <v>275.56399999999996</v>
       </c>
       <c r="H20" s="4">
-        <v>-7.4619999999999997</v>
+        <f t="shared" si="6"/>
+        <v>477.834</v>
       </c>
       <c r="I20" s="4">
-        <v>0.66700000000000004</v>
+        <f t="shared" si="6"/>
+        <v>439.56200000000001</v>
       </c>
       <c r="J20" s="4">
-        <v>5.5</v>
+        <f t="shared" si="6"/>
+        <v>477.93900000000002</v>
       </c>
       <c r="K20" s="4">
-        <v>1.86</v>
+        <f t="shared" si="6"/>
+        <v>523.46699999999998</v>
       </c>
       <c r="L20" s="4">
-        <v>4.2160000000000002</v>
+        <f t="shared" si="6"/>
+        <v>522.17500000000007</v>
       </c>
       <c r="M20" s="4">
-        <v>4</v>
+        <f t="shared" ref="M20:N20" si="7">SUM(M17:M19)</f>
+        <v>536</v>
       </c>
       <c r="N20" s="4">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>513</v>
       </c>
       <c r="O20" s="4">
-        <v>4</v>
+        <f t="shared" ref="O20:P20" si="8">SUM(O17:O19)</f>
+        <v>529</v>
       </c>
       <c r="P20" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>552</v>
       </c>
       <c r="Q20" s="4">
-        <v>7</v>
+        <f t="shared" ref="Q20" si="9">SUM(Q17:Q19)</f>
+        <v>546</v>
       </c>
       <c r="R20" s="4">
-        <v>18</v>
+        <f t="shared" ref="R20:V20" si="10">SUM(R17:R19)</f>
+        <v>515</v>
       </c>
       <c r="S20" s="4">
-        <v>18</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="10"/>
+        <v>510</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="10"/>
+        <v>524</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="10"/>
+        <v>524</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="4">
+        <f t="shared" ref="AA20:AD20" si="11">SUM(AA17:AA19)</f>
+        <v>1670.8990000000001</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="11"/>
+        <v>2094.6419999999998</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="11"/>
+        <v>2142</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="11"/>
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:N21" si="17">+E19-E20</f>
-        <v>-72.674999999999997</v>
+        <f t="shared" ref="E21:L21" si="12">E16-E20</f>
+        <v>-51.975999999999999</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="12"/>
+        <v>-54.595999999999975</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="12"/>
+        <v>-90.680999999999983</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="12"/>
+        <v>-263.44</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="12"/>
+        <v>-198.55600000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="12"/>
+        <v>-214.42600000000004</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="12"/>
+        <v>-239.68899999999996</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="12"/>
+        <v>-208.06200000000001</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" ref="M21" si="13">M16-M20</f>
+        <v>-193</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" ref="N21:O21" si="14">N16-N20</f>
+        <v>-142</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="14"/>
+        <v>-153</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" ref="P21" si="15">P16-P20</f>
+        <v>-145</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" ref="Q21" si="16">Q16-Q20</f>
+        <v>-107</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ref="R21:V21" si="17">R16-R20</f>
+        <v>-55</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="17"/>
-        <v>-75.805999999999969</v>
-      </c>
-      <c r="G21" s="4">
+        <v>-47</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="17"/>
-        <v>-109.09599999999999</v>
-      </c>
-      <c r="H21" s="4">
+        <v>-19</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="17"/>
-        <v>-276.63900000000001</v>
-      </c>
-      <c r="I21" s="4">
+        <v>-16</v>
+      </c>
+      <c r="V21" s="4">
         <f t="shared" si="17"/>
-        <v>-221.31100000000001</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="17"/>
-        <v>-241.18600000000004</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="17"/>
-        <v>-242.71299999999997</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="17"/>
-        <v>-210.47200000000001</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="17"/>
-        <v>-195</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="17"/>
-        <v>-138</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" ref="O21:P21" si="18">+O19-O20</f>
-        <v>-143</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="18"/>
-        <v>-136</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" ref="Q21" si="19">+Q19-Q20</f>
-        <v>-95</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" ref="R21:S21" si="20">+R19-R20</f>
-        <v>-74</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="20"/>
-        <v>-40</v>
-      </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+        <v>-16.319999999999993</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA21" s="4">
+        <f t="shared" ref="AA21:AD21" si="18">AA16-AA20</f>
+        <v>-767.10300000000007</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="18"/>
+        <v>-782.75099999999975</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="18"/>
+        <v>-460</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="18"/>
+        <v>-98.319999999999936</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" ref="E22:N22" si="21">E21/E23</f>
-        <v>-0.56418994977215031</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.58250472575266232</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.82788346980125516</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.8277251795424065</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.4393649678711726</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.5588547052740436</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.5571002405773855</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.3371791613722999</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="21"/>
-        <v>-1.2286715225445473</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.86229520488883882</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" ref="O22:P22" si="22">O21/O23</f>
-        <v>-0.88642041122468584</v>
-      </c>
-      <c r="P22" s="7">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <f>-22.368+1.878</f>
+        <v>-20.49</v>
+      </c>
+      <c r="F22" s="4">
+        <f>-22.597+2.154</f>
+        <v>-20.443000000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <f>-22.76+4.355</f>
+        <v>-18.405000000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <f>-22.872+2.211</f>
+        <v>-20.661000000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <f>-23.144+1.056</f>
+        <v>-22.087999999999997</v>
+      </c>
+      <c r="J22" s="4">
+        <f>-23.406+2.146</f>
+        <v>-21.259999999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <f>-2.868+1.704</f>
+        <v>-1.1639999999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <f>-2.915+4.721</f>
+        <v>1.806</v>
+      </c>
+      <c r="M22" s="4">
+        <f>-3+5</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
+        <f>-2+10</f>
+        <v>8</v>
+      </c>
+      <c r="O22" s="4">
+        <f>-3+17</f>
+        <v>14</v>
+      </c>
+      <c r="P22" s="4">
+        <f>-2+18</f>
+        <v>16</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>-2+21</f>
+        <v>19</v>
+      </c>
+      <c r="R22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="4">
+        <f>-2+27</f>
+        <v>25</v>
+      </c>
+      <c r="T22" s="4">
+        <v>28</v>
+      </c>
+      <c r="U22" s="4">
+        <f>26-1</f>
+        <v>25</v>
+      </c>
+      <c r="V22" s="4">
+        <f>+U22</f>
+        <v>25</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="AA22" s="3">
+        <f>SUM(G22:J22)</f>
+        <v>-82.413999999999987</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>SUM(K22:N22)</f>
+        <v>10.641999999999999</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>SUM(O22:R22)</f>
+        <v>48</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>SUM(S22:V22)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23:N23" si="19">+E21+E22</f>
+        <v>-72.465999999999994</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="19"/>
+        <v>-75.038999999999973</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="19"/>
+        <v>-109.08599999999998</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="19"/>
+        <v>-284.101</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="19"/>
+        <v>-220.64400000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="19"/>
+        <v>-235.68600000000004</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="19"/>
+        <v>-240.85299999999995</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="19"/>
+        <v>-206.256</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="19"/>
+        <v>-191</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="19"/>
+        <v>-134</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" ref="O23:P23" si="20">+O21+O22</f>
+        <v>-139</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="20"/>
+        <v>-129</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23" si="21">+Q21+Q22</f>
+        <v>-88</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" ref="R23:V23" si="22">+R21+R22</f>
+        <v>-56</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="22"/>
-        <v>-0.83561180916100886</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" ref="Q22" si="23">Q21/Q23</f>
-        <v>-0.57792567267506589</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" ref="R22:S22" si="24">R21/R23</f>
-        <v>-0.44188337861642729</v>
-      </c>
-      <c r="S22" s="7">
-        <f t="shared" si="24"/>
-        <v>-0.23885588033320396</v>
-      </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>128.81299999999999</v>
-      </c>
-      <c r="F23" s="4">
-        <v>130.13800000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>131.77699999999999</v>
-      </c>
-      <c r="H23" s="4">
-        <v>151.357</v>
-      </c>
-      <c r="I23" s="4">
-        <v>153.756</v>
-      </c>
-      <c r="J23" s="4">
-        <v>154.72</v>
-      </c>
-      <c r="K23" s="4">
-        <v>155.875</v>
-      </c>
-      <c r="L23" s="4">
-        <v>157.4</v>
-      </c>
-      <c r="M23" s="4">
-        <v>158.708</v>
-      </c>
-      <c r="N23" s="4">
-        <v>160.03800000000001</v>
-      </c>
-      <c r="O23" s="4">
-        <v>161.32300000000001</v>
-      </c>
-      <c r="P23" s="4">
-        <v>162.755</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>164.381</v>
-      </c>
-      <c r="R23" s="4">
-        <v>167.465</v>
-      </c>
-      <c r="S23" s="4">
-        <v>167.465</v>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+        <v>-22</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="22"/>
+        <v>8.6800000000000068</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA23" s="4">
+        <f t="shared" ref="AA23:AD23" si="23">+AA21+AA22</f>
+        <v>-849.51700000000005</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="23"/>
+        <v>-772.1089999999997</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" si="23"/>
+        <v>-412</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="23"/>
+        <v>4.6800000000000637</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-7.4619999999999997</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="L24" s="4">
+        <v>4.2160000000000002</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>4</v>
+      </c>
+      <c r="O24" s="4">
+        <v>4</v>
+      </c>
+      <c r="P24" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24" s="4">
+        <v>18</v>
+      </c>
+      <c r="S24" s="4">
+        <v>18</v>
+      </c>
+      <c r="T24" s="4">
+        <v>-17</v>
+      </c>
+      <c r="U24" s="4">
+        <v>9</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="AA24" s="3">
+        <f>SUM(G24:J24)</f>
+        <v>-1.2850000000000001</v>
+      </c>
+      <c r="AB24" s="3">
+        <f>SUM(K24:N24)</f>
+        <v>14.076000000000001</v>
+      </c>
+      <c r="AC24" s="3">
+        <f>SUM(O24:R24)</f>
+        <v>36</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>SUM(S24:V24)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="8">
-        <f>+I10/E10-1</f>
+        <v>32</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25:N25" si="24">+E23-E24</f>
+        <v>-72.674999999999997</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="24"/>
+        <v>-75.805999999999969</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="24"/>
+        <v>-109.09599999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="24"/>
+        <v>-276.63900000000001</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="24"/>
+        <v>-221.31100000000001</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="24"/>
+        <v>-241.18600000000004</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="24"/>
+        <v>-242.71299999999997</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="24"/>
+        <v>-210.47200000000001</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="24"/>
+        <v>-195</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="24"/>
+        <v>-138</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" ref="O25:P25" si="25">+O23-O24</f>
+        <v>-143</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="25"/>
+        <v>-136</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" ref="Q25" si="26">+Q23-Q24</f>
+        <v>-95</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" ref="R25:V25" si="27">+R23-R24</f>
+        <v>-74</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="27"/>
+        <v>-40</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="27"/>
+        <v>8.6800000000000068</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="AA25" s="4">
+        <f t="shared" ref="AA25:AD25" si="28">+AA23-AA24</f>
+        <v>-848.23200000000008</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" si="28"/>
+        <v>-786.18499999999972</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="28"/>
+        <v>-448</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="28"/>
+        <v>-5.3199999999999363</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26:N26" si="29">E25/E27</f>
+        <v>-0.56418994977215031</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="29"/>
+        <v>-0.58250472575266232</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="29"/>
+        <v>-0.82788346980125516</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.8277251795424065</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.4393649678711726</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.5588547052740436</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.5571002405773855</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.3371791613722999</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="29"/>
+        <v>-1.2286715225445473</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="29"/>
+        <v>-0.86229520488883882</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" ref="O26:P26" si="30">O25/O27</f>
+        <v>-0.88642041122468584</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="30"/>
+        <v>-0.83561180916100886</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" ref="Q26" si="31">Q25/Q27</f>
+        <v>-0.57792567267506589</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" ref="R26:V26" si="32">R25/R27</f>
+        <v>-0.44188337861642729</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="32"/>
+        <v>-0.23885588033320396</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.14904582012462522</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="32"/>
+        <v>5.0857487710417038E-2</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="AA26" s="7">
+        <f t="shared" ref="AA26:AD26" si="33">AA25/AA27</f>
+        <v>-5.3683785823572325</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="33"/>
+        <v>-4.975689098938167</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="33"/>
+        <v>-2.8353488254345982</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" si="33"/>
+        <v>-3.1145079282374848E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>128.81299999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>130.13800000000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>131.77699999999999</v>
+      </c>
+      <c r="H27" s="4">
+        <v>151.357</v>
+      </c>
+      <c r="I27" s="4">
+        <v>153.756</v>
+      </c>
+      <c r="J27" s="4">
+        <v>154.72</v>
+      </c>
+      <c r="K27" s="4">
+        <v>155.875</v>
+      </c>
+      <c r="L27" s="4">
+        <v>157.4</v>
+      </c>
+      <c r="M27" s="4">
+        <v>158.708</v>
+      </c>
+      <c r="N27" s="4">
+        <v>160.03800000000001</v>
+      </c>
+      <c r="O27" s="4">
+        <v>161.32300000000001</v>
+      </c>
+      <c r="P27" s="4">
+        <v>162.755</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>164.381</v>
+      </c>
+      <c r="R27" s="4">
+        <v>167.465</v>
+      </c>
+      <c r="S27" s="4">
+        <v>167.465</v>
+      </c>
+      <c r="T27" s="4">
+        <v>174.44300000000001</v>
+      </c>
+      <c r="U27" s="4">
+        <v>170.673</v>
+      </c>
+      <c r="V27" s="4">
+        <f>+U27</f>
+        <v>170.673</v>
+      </c>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="AA27" s="3">
+        <f>AVERAGE(K27:N27)</f>
+        <v>158.00524999999999</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>AVERAGE(K27:N27)</f>
+        <v>158.00524999999999</v>
+      </c>
+      <c r="AC27" s="3">
+        <f>AVERAGE(K27:N27)</f>
+        <v>158.00524999999999</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>AVERAGE(S27:V27)</f>
+        <v>170.8135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="8">
+        <f>+I14/E14-1</f>
         <v>0.61321930821284498</v>
       </c>
-      <c r="J25" s="8">
-        <f>+J10/F10-1</f>
+      <c r="J29" s="8">
+        <f>+J14/F14-1</f>
         <v>0.63165630058788436</v>
       </c>
-      <c r="K25" s="8">
-        <f>+K10/G10-1</f>
+      <c r="K29" s="8">
+        <f>+K14/G14-1</f>
         <v>0.65311984574073922</v>
       </c>
-      <c r="L25" s="8">
-        <f>+L10/H10-1</f>
+      <c r="L29" s="8">
+        <f>+L14/H14-1</f>
         <v>0.43203486529318558</v>
       </c>
-      <c r="M25" s="8">
-        <f>+M10/I10-1</f>
+      <c r="M29" s="8">
+        <f>+M14/I14-1</f>
         <v>0.37162085091821595</v>
       </c>
-      <c r="N25" s="8">
-        <f t="shared" ref="N25:P25" si="25">+N10/J10-1</f>
+      <c r="N29" s="8">
+        <f t="shared" ref="N29:P29" si="34">+N14/J14-1</f>
         <v>0.33154054018772117</v>
       </c>
-      <c r="O25" s="8">
-        <f t="shared" si="25"/>
+      <c r="O29" s="8">
+        <f t="shared" si="34"/>
         <v>0.24836423315973533</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="25"/>
+      <c r="P29" s="8">
+        <f t="shared" si="34"/>
         <v>0.23061395684440478</v>
       </c>
-      <c r="Q25" s="8">
-        <f t="shared" ref="Q25:S25" si="26">+Q10/M10-1</f>
+      <c r="Q29" s="8">
+        <f t="shared" ref="Q29:V29" si="35">+Q14/M14-1</f>
         <v>0.2141372141372142</v>
       </c>
-      <c r="R25" s="8">
-        <f t="shared" si="26"/>
+      <c r="R29" s="8">
+        <f t="shared" si="35"/>
         <v>0.18627450980392157</v>
       </c>
-      <c r="S25" s="8">
-        <f t="shared" si="26"/>
+      <c r="S29" s="8">
+        <f t="shared" si="35"/>
         <v>0.19111969111969107</v>
       </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:K26" si="27">+E12/E10</f>
+      <c r="T29" s="8">
+        <f t="shared" si="35"/>
+        <v>0.16187050359712241</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="35"/>
+        <v>0.13869863013698636</v>
+      </c>
+      <c r="V29" s="8">
+        <f t="shared" si="35"/>
+        <v>0.10413223140495864</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="AB29" s="12">
+        <f>+AB14/AA14-1</f>
+        <v>0.42881754436429431</v>
+      </c>
+      <c r="AC29" s="12">
+        <f t="shared" ref="AC29:AD29" si="36">+AC14/AB14-1</f>
+        <v>0.21814022338850769</v>
+      </c>
+      <c r="AD29" s="12">
+        <f t="shared" si="36"/>
+        <v>0.1471498011489174</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ref="E30:K30" si="37">+E16/E14</f>
         <v>0.73820838259445487</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="27"/>
+      <c r="F30" s="8">
+        <f t="shared" si="37"/>
         <v>0.739541620516316</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" si="27"/>
+      <c r="G30" s="8">
+        <f t="shared" si="37"/>
         <v>0.73656805016613136</v>
       </c>
-      <c r="H26" s="8">
-        <f t="shared" si="27"/>
+      <c r="H30" s="8">
+        <f t="shared" si="37"/>
         <v>0.67953724247226621</v>
       </c>
-      <c r="I26" s="8">
-        <f t="shared" si="27"/>
+      <c r="I30" s="8">
+        <f t="shared" si="37"/>
         <v>0.68725333637504271</v>
       </c>
-      <c r="J26" s="8">
-        <f t="shared" si="27"/>
+      <c r="J30" s="8">
+        <f t="shared" si="37"/>
         <v>0.6879965536597783</v>
       </c>
-      <c r="K26" s="8">
-        <f t="shared" si="27"/>
+      <c r="K30" s="8">
+        <f t="shared" si="37"/>
         <v>0.68389634238919572</v>
       </c>
-      <c r="L26" s="8">
-        <f>+L12/L10</f>
+      <c r="L30" s="8">
+        <f>+L16/L14</f>
         <v>0.69523712558681039</v>
       </c>
-      <c r="M26" s="8">
-        <f>+M12/M10</f>
+      <c r="M30" s="8">
+        <f>+M16/M14</f>
         <v>0.71309771309771308</v>
       </c>
-      <c r="N26" s="8">
-        <f t="shared" ref="N26:O26" si="28">+N12/N10</f>
+      <c r="N30" s="8">
+        <f t="shared" ref="N30:O30" si="38">+N16/N14</f>
         <v>0.72745098039215683</v>
       </c>
-      <c r="O26" s="8">
-        <f t="shared" si="28"/>
+      <c r="O30" s="8">
+        <f t="shared" si="38"/>
         <v>0.72586872586872586</v>
       </c>
-      <c r="P26" s="8">
-        <f t="shared" ref="P26" si="29">+P12/P10</f>
+      <c r="P30" s="8">
+        <f t="shared" ref="P30" si="39">+P16/P14</f>
         <v>0.73201438848920863</v>
       </c>
-      <c r="Q26" s="8">
-        <f t="shared" ref="Q26" si="30">+Q12/Q10</f>
+      <c r="Q30" s="8">
+        <f t="shared" ref="Q30" si="40">+Q16/Q14</f>
         <v>0.75171232876712324</v>
       </c>
-      <c r="R26" s="8">
-        <f t="shared" ref="R26:S26" si="31">+R12/R10</f>
+      <c r="R30" s="8">
+        <f t="shared" ref="R30:V30" si="41">+R16/R14</f>
         <v>0.76033057851239672</v>
       </c>
-      <c r="S26" s="8">
-        <f t="shared" si="31"/>
+      <c r="S30" s="8">
+        <f t="shared" si="41"/>
         <v>0.76012965964343593</v>
       </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="28" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="T30" s="8">
+        <f t="shared" si="41"/>
+        <v>0.76006191950464397</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="41"/>
+        <v>0.76390977443609021</v>
+      </c>
+      <c r="V30" s="8">
+        <f t="shared" si="41"/>
+        <v>0.76</v>
+      </c>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="AA30" s="8">
+        <f t="shared" ref="AA30:AD30" si="42">+AA16/AA14</f>
+        <v>0.69512021602813723</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="42"/>
+        <v>0.70617198223657651</v>
+      </c>
+      <c r="AC30" s="8">
+        <f t="shared" si="42"/>
+        <v>0.74326115775519219</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="42"/>
+        <v>0.76104776579352851</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
-        <f>194.227+2292.902</f>
-        <v>2487.1289999999999</v>
-      </c>
-      <c r="L28" s="4">
-        <f>216.022+2260.956</f>
-        <v>2476.9780000000001</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
-        <v>258.911</v>
-      </c>
-      <c r="L29" s="4">
-        <v>323.37700000000001</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4">
-        <f>77.12+188.49</f>
-        <v>265.61</v>
-      </c>
-      <c r="L30" s="4">
-        <f>80.657+191.309</f>
-        <v>271.96600000000001</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>75.483000000000004</v>
-      </c>
-      <c r="L31" s="4">
-        <f>64.49</f>
-        <v>64.489999999999995</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2438,27 +2907,47 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
-        <v>66.418000000000006</v>
+        <f>194.227+2292.902</f>
+        <v>2487.1289999999999</v>
       </c>
       <c r="L32" s="4">
-        <v>66.957999999999998</v>
+        <f>216.022+2260.956</f>
+        <v>2476.9780000000001</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="O32" s="4">
+        <f>125+2245</f>
+        <v>2370</v>
+      </c>
+      <c r="P32" s="4">
+        <f>356+1750</f>
+        <v>2106</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>400+1730</f>
+        <v>2130</v>
+      </c>
       <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="S32" s="4">
+        <f>322+1998</f>
+        <v>2320</v>
+      </c>
+      <c r="T32" s="4">
+        <f>515+1843</f>
+        <v>2358</v>
+      </c>
+      <c r="U32" s="4">
+        <f>310+1938</f>
+        <v>2248</v>
+      </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
     <row r="33" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2469,27 +2958,39 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
-        <v>144.73099999999999</v>
+        <v>258.911</v>
       </c>
       <c r="L33" s="4">
-        <v>141.94</v>
+        <v>323.37700000000001</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="O33" s="4">
+        <v>290</v>
+      </c>
+      <c r="P33" s="4">
+        <v>388</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>418</v>
+      </c>
       <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="S33" s="4">
+        <v>307</v>
+      </c>
+      <c r="T33" s="4">
+        <v>377</v>
+      </c>
+      <c r="U33" s="4">
+        <v>463</v>
+      </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
     <row r="34" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2500,29 +3001,47 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <f>298.823+5401.343</f>
-        <v>5700.1660000000002</v>
+        <f>77.12+188.49</f>
+        <v>265.61</v>
       </c>
       <c r="L34" s="4">
-        <f>281.47+5400.275</f>
-        <v>5681.7449999999999</v>
+        <f>80.657+191.309</f>
+        <v>271.96600000000001</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="O34" s="4">
+        <f>95+208</f>
+        <v>303</v>
+      </c>
+      <c r="P34" s="4">
+        <f>101+218</f>
+        <v>319</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>104+220</f>
+        <v>324</v>
+      </c>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="S34" s="4">
+        <f>117+232</f>
+        <v>349</v>
+      </c>
+      <c r="T34" s="4">
+        <f>122+230</f>
+        <v>352</v>
+      </c>
+      <c r="U34" s="4">
+        <f>127+230</f>
+        <v>357</v>
+      </c>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
     <row r="35" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2533,27 +3052,40 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <v>47.232999999999997</v>
+        <v>75.483000000000004</v>
       </c>
       <c r="L35" s="4">
-        <v>46.552999999999997</v>
+        <f>64.49</f>
+        <v>64.489999999999995</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="O35" s="4">
+        <v>88</v>
+      </c>
+      <c r="P35" s="4">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>75</v>
+      </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="S35" s="4">
+        <v>173</v>
+      </c>
+      <c r="T35" s="4">
+        <v>181</v>
+      </c>
+      <c r="U35" s="4">
+        <v>165</v>
+      </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
     <row r="36" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2564,29 +3096,82 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <f t="shared" ref="K36" si="32">SUM(K28:K35)</f>
-        <v>9045.6810000000005</v>
+        <v>66.418000000000006</v>
       </c>
       <c r="L36" s="4">
-        <f>SUM(L28:L35)</f>
-        <v>9074.0069999999996</v>
+        <v>66.957999999999998</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="O36" s="4">
+        <v>54</v>
+      </c>
+      <c r="P36" s="4">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>50</v>
+      </c>
       <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="S36" s="4">
+        <v>47</v>
+      </c>
+      <c r="T36" s="4">
+        <v>47</v>
+      </c>
+      <c r="U36" s="4">
+        <v>46</v>
+      </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
+    <row r="37" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
+        <v>144.73099999999999</v>
+      </c>
+      <c r="L37" s="4">
+        <v>141.94</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4">
+        <v>114</v>
+      </c>
+      <c r="P37" s="4">
+        <v>92</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>91</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
+        <v>81</v>
+      </c>
+      <c r="T37" s="4">
+        <v>82</v>
+      </c>
+      <c r="U37" s="4">
+        <v>79</v>
+      </c>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
     <row r="38" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2597,27 +3182,47 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4">
-        <v>33.752000000000002</v>
+        <f>298.823+5401.343</f>
+        <v>5700.1660000000002</v>
       </c>
       <c r="L38" s="4">
-        <v>43.707999999999998</v>
+        <f>281.47+5400.275</f>
+        <v>5681.7449999999999</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="O38" s="4">
+        <f>227+5406</f>
+        <v>5633</v>
+      </c>
+      <c r="P38" s="4">
+        <f>211+5406</f>
+        <v>5617</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>197+5406</f>
+        <v>5603</v>
+      </c>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="S38" s="4">
+        <f>184+5448</f>
+        <v>5632</v>
+      </c>
+      <c r="T38" s="4">
+        <f>168+5448</f>
+        <v>5616</v>
+      </c>
+      <c r="U38" s="4">
+        <f>151+5448</f>
+        <v>5599</v>
+      </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
     <row r="39" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2628,27 +3233,39 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
-        <v>110.928</v>
+        <v>47.232999999999997</v>
       </c>
       <c r="L39" s="4">
-        <v>106.477</v>
+        <v>46.552999999999997</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="O39" s="4">
+        <v>48</v>
+      </c>
+      <c r="P39" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>49</v>
+      </c>
       <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
+      <c r="S39" s="4">
+        <v>46</v>
+      </c>
+      <c r="T39" s="4">
+        <v>54</v>
+      </c>
+      <c r="U39" s="4">
+        <v>53</v>
+      </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
     <row r="40" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2659,60 +3276,47 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4">
-        <v>83.206999999999994</v>
+        <f t="shared" ref="K40" si="43">SUM(K32:K39)</f>
+        <v>9045.6810000000005</v>
       </c>
       <c r="L40" s="4">
-        <v>87.093999999999994</v>
+        <f>SUM(L32:L39)</f>
+        <v>9074.0069999999996</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+      <c r="O40" s="4">
+        <f>SUM(O32:O39)</f>
+        <v>8900</v>
+      </c>
+      <c r="P40" s="4">
+        <f>SUM(P32:P39)</f>
+        <v>8713</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" ref="Q40" si="44">SUM(Q32:Q39)</f>
+        <v>8740</v>
+      </c>
       <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
+      <c r="S40" s="4">
+        <f t="shared" ref="S40:T40" si="45">SUM(S32:S39)</f>
+        <v>8955</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="45"/>
+        <v>9067</v>
+      </c>
+      <c r="U40" s="4">
+        <f>SUM(U32:U39)</f>
+        <v>9010</v>
+      </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
-        <f>5.198+2188.675</f>
-        <v>2193.873</v>
-      </c>
-      <c r="L41" s="4">
-        <f>5.209+2190.11</f>
-        <v>2195.319</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-    </row>
     <row r="42" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2723,29 +3327,39 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4">
-        <f>952.19+19.074</f>
-        <v>971.26400000000001</v>
+        <v>33.752000000000002</v>
       </c>
       <c r="L42" s="4">
-        <f>994.097+17.187</f>
-        <v>1011.284</v>
+        <v>43.707999999999998</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="O42" s="4">
+        <v>10</v>
+      </c>
+      <c r="P42" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>11</v>
+      </c>
       <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="S42" s="4">
+        <v>12</v>
+      </c>
+      <c r="T42" s="4">
+        <v>11</v>
+      </c>
+      <c r="U42" s="4">
+        <v>12</v>
+      </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
     <row r="43" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2756,27 +3370,39 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4">
-        <v>163.86799999999999</v>
+        <v>110.928</v>
       </c>
       <c r="L43" s="4">
-        <v>158.577</v>
+        <v>106.477</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
+      <c r="O43" s="4">
+        <v>91</v>
+      </c>
+      <c r="P43" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>108</v>
+      </c>
       <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="S43" s="4">
+        <v>166</v>
+      </c>
+      <c r="T43" s="4">
+        <v>142</v>
+      </c>
+      <c r="U43" s="4">
+        <v>151</v>
+      </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
     <row r="44" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2787,27 +3413,39 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <v>16.094999999999999</v>
+        <v>83.206999999999994</v>
       </c>
       <c r="L44" s="4">
-        <v>18.532</v>
+        <v>87.093999999999994</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="O44" s="4">
+        <v>88</v>
+      </c>
+      <c r="P44" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>168</v>
+      </c>
       <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+      <c r="S44" s="4">
+        <v>117</v>
+      </c>
+      <c r="T44" s="4">
+        <v>113</v>
+      </c>
+      <c r="U44" s="4">
+        <v>147</v>
+      </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
     <row r="45" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2818,27 +3456,42 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4">
-        <v>5472.6940000000004</v>
+        <f>5.198+2188.675</f>
+        <v>2193.873</v>
       </c>
       <c r="L45" s="4">
-        <v>5453.0159999999996</v>
+        <f>5.209+2190.11</f>
+        <v>2195.319</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="O45" s="4">
+        <v>1831</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1451</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1302</v>
+      </c>
       <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
+      <c r="S45" s="4">
+        <v>1155</v>
+      </c>
+      <c r="T45" s="4">
+        <v>1113</v>
+      </c>
+      <c r="U45" s="4">
+        <f>509+349</f>
+        <v>858</v>
+      </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
     <row r="46" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2849,25 +3502,920 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4">
-        <f>SUM(K38:K45)</f>
-        <v>9045.6810000000005</v>
+        <f>952.19+19.074</f>
+        <v>971.26400000000001</v>
       </c>
       <c r="L46" s="4">
-        <f>SUM(L38:L45)</f>
-        <v>9074.0069999999996</v>
+        <f>994.097+17.187</f>
+        <v>1011.284</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+      <c r="O46" s="4">
+        <f>1173+14</f>
+        <v>1187</v>
+      </c>
+      <c r="P46" s="4">
+        <f>1225+17</f>
+        <v>1242</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>1256+18</f>
+        <v>1274</v>
+      </c>
       <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
+      <c r="S46" s="4">
+        <f>19+1391</f>
+        <v>1410</v>
+      </c>
+      <c r="T46" s="4">
+        <f>1394+21</f>
+        <v>1415</v>
+      </c>
+      <c r="U46" s="4">
+        <f>1415+25</f>
+        <v>1440</v>
+      </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>163.86799999999999</v>
+      </c>
+      <c r="L47" s="4">
+        <v>158.577</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4">
+        <v>134</v>
+      </c>
+      <c r="P47" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>119</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4">
+        <v>108</v>
+      </c>
+      <c r="T47" s="4">
+        <v>107</v>
+      </c>
+      <c r="U47" s="4">
+        <v>102</v>
+      </c>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
+        <v>16.094999999999999</v>
+      </c>
+      <c r="L48" s="4">
+        <v>18.532</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4">
+        <v>25</v>
+      </c>
+      <c r="P48" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>28</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4">
+        <v>34</v>
+      </c>
+      <c r="T48" s="4">
+        <v>33</v>
+      </c>
+      <c r="U48" s="4">
+        <v>35</v>
+      </c>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <v>5472.6940000000004</v>
+      </c>
+      <c r="L49" s="4">
+        <v>5453.0159999999996</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4">
+        <v>5534</v>
+      </c>
+      <c r="P49" s="4">
+        <v>5640</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>5730</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <v>5953</v>
+      </c>
+      <c r="T49" s="4">
+        <v>6133</v>
+      </c>
+      <c r="U49" s="4">
+        <v>6265</v>
+      </c>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4">
+        <f>SUM(K42:K49)</f>
+        <v>9045.6810000000005</v>
+      </c>
+      <c r="L50" s="4">
+        <f>SUM(L42:L49)</f>
+        <v>9074.0069999999996</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4">
+        <f>SUM(O42:O49)</f>
+        <v>8900</v>
+      </c>
+      <c r="P50" s="4">
+        <f>SUM(P42:P49)</f>
+        <v>8713</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" ref="Q50" si="46">SUM(Q42:Q49)</f>
+        <v>8740</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4">
+        <f t="shared" ref="S50:T50" si="47">SUM(S42:S49)</f>
+        <v>8955</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="47"/>
+        <v>9067</v>
+      </c>
+      <c r="U50" s="4">
+        <f>SUM(U42:U49)</f>
+        <v>9010</v>
+      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" ref="O52:R52" si="48">O25</f>
+        <v>-143</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="48"/>
+        <v>-136</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="48"/>
+        <v>-95</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="48"/>
+        <v>-74</v>
+      </c>
+      <c r="S52" s="4">
+        <f>S25</f>
+        <v>-40</v>
+      </c>
+      <c r="T52" s="4">
+        <f>T25</f>
+        <v>26</v>
+      </c>
+      <c r="U52" s="4">
+        <f>U25</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="4">
+        <f t="shared" ref="AA52:AD52" si="49">AA25</f>
+        <v>-848.23200000000008</v>
+      </c>
+      <c r="AB52" s="4">
+        <f t="shared" si="49"/>
+        <v>-786.18499999999972</v>
+      </c>
+      <c r="AC52" s="4">
+        <f t="shared" si="49"/>
+        <v>-448</v>
+      </c>
+      <c r="AD52" s="4">
+        <f t="shared" si="49"/>
+        <v>-5.3199999999999363</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-119</v>
+      </c>
+      <c r="P53" s="2">
+        <f>-230-O53</f>
+        <v>-111</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>-311-P53-O53</f>
+        <v>-81</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" ref="R53:R59" si="50">+AC53-Q53-P53-O53</f>
+        <v>-44</v>
+      </c>
+      <c r="S53" s="2">
+        <v>-40</v>
+      </c>
+      <c r="T53" s="2">
+        <f>-11-S53</f>
+        <v>29</v>
+      </c>
+      <c r="U53" s="2">
+        <f>5-T53-S53</f>
+        <v>16</v>
+      </c>
+      <c r="AA53">
+        <v>-848</v>
+      </c>
+      <c r="AB53">
+        <v>-815</v>
+      </c>
+      <c r="AC53">
+        <v>-355</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O54" s="2">
+        <v>166</v>
+      </c>
+      <c r="P54" s="2">
+        <f>351-O54</f>
+        <v>185</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>523-P54-O54</f>
+        <v>172</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="50"/>
+        <v>161</v>
+      </c>
+      <c r="S54" s="2">
+        <v>151</v>
+      </c>
+      <c r="T54" s="2">
+        <f>299-S54</f>
+        <v>148</v>
+      </c>
+      <c r="U54" s="2">
+        <f>434-T54-S54</f>
+        <v>135</v>
+      </c>
+      <c r="AA54">
+        <v>566</v>
+      </c>
+      <c r="AB54">
+        <v>677</v>
+      </c>
+      <c r="AC54">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="2">
+        <v>25</v>
+      </c>
+      <c r="P55" s="2">
+        <f>43-O55</f>
+        <v>18</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>64-P55-O55</f>
+        <v>21</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="50"/>
+        <v>20</v>
+      </c>
+      <c r="S55" s="2">
+        <v>21</v>
+      </c>
+      <c r="T55" s="2">
+        <f>42-S55</f>
+        <v>21</v>
+      </c>
+      <c r="U55" s="2">
+        <f>64-T55-S55</f>
+        <v>22</v>
+      </c>
+      <c r="AA55">
+        <v>108</v>
+      </c>
+      <c r="AB55">
+        <v>114</v>
+      </c>
+      <c r="AC55">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="O56" s="2">
+        <f>1+23</f>
+        <v>24</v>
+      </c>
+      <c r="P56" s="2">
+        <f>2+49-O56</f>
+        <v>27</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>3+76-P56-O56</f>
+        <v>28</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="50"/>
+        <v>28</v>
+      </c>
+      <c r="S56" s="2">
+        <v>30</v>
+      </c>
+      <c r="T56" s="2">
+        <f>62-S56</f>
+        <v>32</v>
+      </c>
+      <c r="U56" s="2">
+        <f>95-T56-S56</f>
+        <v>33</v>
+      </c>
+      <c r="AA56">
+        <f>86+57</f>
+        <v>143</v>
+      </c>
+      <c r="AB56">
+        <f>6+84</f>
+        <v>90</v>
+      </c>
+      <c r="AC56">
+        <f>3+104</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <f>3-O57</f>
+        <v>2</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>4-P57-O57</f>
+        <v>1</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <f>-4-S57</f>
+        <v>-5</v>
+      </c>
+      <c r="U57" s="2">
+        <f>-2-T57-S57</f>
+        <v>2</v>
+      </c>
+      <c r="AA57">
+        <v>-6</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="2">
+        <f>8-31+2</f>
+        <v>-21</v>
+      </c>
+      <c r="P58" s="2">
+        <f>25-73+4-O58</f>
+        <v>-23</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>25-91+1+5-P58-O58</f>
+        <v>-16</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="50"/>
+        <v>-8</v>
+      </c>
+      <c r="S58" s="2">
+        <v>3</v>
+      </c>
+      <c r="T58" s="2">
+        <f>-3+7-S58</f>
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <f>-19+8-T58-S58</f>
+        <v>-15</v>
+      </c>
+      <c r="AA58">
+        <f>-8+9</f>
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <f>14-1+7</f>
+        <v>20</v>
+      </c>
+      <c r="AC58">
+        <f>28-106+10</f>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="O59" s="2">
+        <f>191-25-13+6-2-11-9-10-74</f>
+        <v>53</v>
+      </c>
+      <c r="P59" s="2">
+        <f>92-65-14+12+1+24-4-20-18-O59</f>
+        <v>-45</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>61-102-1+18-1+70+9-29+14-P59-O59</f>
+        <v>31</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="50"/>
+        <v>15</v>
+      </c>
+      <c r="S59" s="2">
+        <f>251-26-70+5-51+54-9-101</f>
+        <v>53</v>
+      </c>
+      <c r="T59" s="2">
+        <f>181-59-82+10-1-55+33-18-96-S59</f>
+        <v>-140</v>
+      </c>
+      <c r="U59" s="2">
+        <f>94-97-60+16-1-21+44-26-70-T59-S59</f>
+        <v>-34</v>
+      </c>
+      <c r="AA59">
+        <f>-175-171-7+23+7+50+21-24+416</f>
+        <v>140</v>
+      </c>
+      <c r="AB59">
+        <f>-87-122-13+27-6-44+8-34+264</f>
+        <v>-7</v>
+      </c>
+      <c r="AC59">
+        <f>-79-158-32+23+68+21-39+250</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" ref="O60:R60" si="51">SUM(O53:O59)</f>
+        <v>129</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="51"/>
+        <v>53</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="51"/>
+        <v>156</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="51"/>
+        <v>174</v>
+      </c>
+      <c r="S60" s="2">
+        <f>SUM(S53:S59)</f>
+        <v>219</v>
+      </c>
+      <c r="T60" s="2">
+        <f>SUM(T53:T59)</f>
+        <v>86</v>
+      </c>
+      <c r="U60" s="2">
+        <f>SUM(U53:U59)</f>
+        <v>159</v>
+      </c>
+      <c r="AA60">
+        <f>SUM(AA53:AA59)</f>
+        <v>104</v>
+      </c>
+      <c r="AB60">
+        <f>SUM(AB53:AB59)</f>
+        <v>86</v>
+      </c>
+      <c r="AC60">
+        <f>SUM(AC53:AC59)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="O62" s="2">
+        <v>-5</v>
+      </c>
+      <c r="P62" s="2">
+        <f>-7-2-O62</f>
+        <v>-4</v>
+      </c>
+      <c r="Q62" s="2">
+        <f>-10-5-P62-O62-1</f>
+        <v>-7</v>
+      </c>
+      <c r="R62" s="2">
+        <f>+AC62-Q62-P62-O62</f>
+        <v>16</v>
+      </c>
+      <c r="S62" s="2">
+        <f>-4-1</f>
+        <v>-5</v>
+      </c>
+      <c r="T62" s="2">
+        <f>-7-6-S62</f>
+        <v>-8</v>
+      </c>
+      <c r="U62" s="2">
+        <f>-11-7-T62-S62</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" s="2">
+        <f>-431+456+61</f>
+        <v>86</v>
+      </c>
+      <c r="P63" s="2">
+        <f>-577+1101+61-O63</f>
+        <v>499</v>
+      </c>
+      <c r="Q63" s="2">
+        <f>-1151+1702+61-P63-O63</f>
+        <v>27</v>
+      </c>
+      <c r="R63" s="2">
+        <f>+AC63-Q63-P63-O63</f>
+        <v>-612</v>
+      </c>
+      <c r="S63" s="2">
+        <f>-459+324+2</f>
+        <v>-133</v>
+      </c>
+      <c r="T63" s="2">
+        <f>-779+808+2-S63</f>
+        <v>164</v>
+      </c>
+      <c r="U63" s="2">
+        <f>-1253+1187+3-T63-S63</f>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="O64" s="2">
+        <v>-22</v>
+      </c>
+      <c r="P64" s="2">
+        <f>-22-O64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <f>-22-P64-O64</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <f>+AC64-Q64-P64-O64</f>
+        <v>22</v>
+      </c>
+      <c r="S64" s="2">
+        <v>-56</v>
+      </c>
+      <c r="T64" s="2">
+        <f>-56-S64</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <f>-56-T64-S64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" ref="O65:U65" si="52">SUM(O62:O64)</f>
+        <v>59</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="52"/>
+        <v>495</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="R65" s="2">
+        <f t="shared" si="52"/>
+        <v>-574</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="52"/>
+        <v>-194</v>
+      </c>
+      <c r="T65" s="2">
+        <f t="shared" si="52"/>
+        <v>156</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" si="52"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" s="2">
+        <v>-332</v>
+      </c>
+      <c r="P67" s="2">
+        <f>-671-O67</f>
+        <v>-339</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>-803-7-P67-O67</f>
+        <v>-139</v>
+      </c>
+      <c r="R67" s="2">
+        <f>+AC67-Q67-P67-O67</f>
+        <v>810</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <f>-40-80</f>
+        <v>-120</v>
+      </c>
+      <c r="U67" s="2">
+        <f>-280-T67-S67</f>
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="O68" s="2">
+        <v>6</v>
+      </c>
+      <c r="P68" s="2">
+        <f>-4+8+26-O68</f>
+        <v>24</v>
+      </c>
+      <c r="Q68" s="2">
+        <f>10+26-P68-O68</f>
+        <v>6</v>
+      </c>
+      <c r="R68" s="2">
+        <f>+AC68-Q68-P68-O68</f>
+        <v>-36</v>
+      </c>
+      <c r="S68" s="2">
+        <f>-41+4</f>
+        <v>-37</v>
+      </c>
+      <c r="T68" s="2">
+        <f>9+24-S68</f>
+        <v>70</v>
+      </c>
+      <c r="U68" s="2">
+        <f>-113+17+24-T68-S68</f>
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="O69" s="2">
+        <f>+O67+O68</f>
+        <v>-326</v>
+      </c>
+      <c r="P69" s="2">
+        <f>+P67+P68</f>
+        <v>-315</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>+Q67+Q68</f>
+        <v>-133</v>
+      </c>
+      <c r="R69" s="2">
+        <f>+R67+R68</f>
+        <v>774</v>
+      </c>
+      <c r="S69" s="2">
+        <f>S68+S67</f>
+        <v>-37</v>
+      </c>
+      <c r="T69" s="2">
+        <f>T68+T67</f>
+        <v>-50</v>
+      </c>
+      <c r="U69" s="2">
+        <f>U68+U67</f>
+        <v>-265</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <f>2-O70</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2">
+        <f>-1-P70-O70</f>
+        <v>-3</v>
+      </c>
+      <c r="R70" s="2">
+        <f>+AC70-Q70-P70-O70</f>
+        <v>1</v>
+      </c>
+      <c r="S70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T70" s="2">
+        <f>0-S70</f>
+        <v>1</v>
+      </c>
+      <c r="U70" s="2">
+        <f>1-T70-S70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" ref="O71:R71" si="53">+O70+O69+O65+O60</f>
+        <v>-137</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="53"/>
+        <v>234</v>
+      </c>
+      <c r="Q71" s="2">
+        <f t="shared" si="53"/>
+        <v>40</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="53"/>
+        <v>375</v>
+      </c>
+      <c r="S71" s="2">
+        <f>+S70+S69+S65+S60</f>
+        <v>-13</v>
+      </c>
+      <c r="T71" s="2">
+        <f>+T70+T69+T65+T60</f>
+        <v>193</v>
+      </c>
+      <c r="U71" s="2">
+        <f>+U70+U69+U65+U60</f>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="R73" s="2">
+        <f>SUM(O60:R60)</f>
+        <v>512</v>
+      </c>
+      <c r="S73" s="2">
+        <f>SUM(P60:S60)</f>
+        <v>602</v>
+      </c>
+      <c r="T73" s="2">
+        <f>SUM(Q60:T60)</f>
+        <v>635</v>
+      </c>
+      <c r="U73" s="2">
+        <f>SUM(R60:U60)</f>
+        <v>638</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
